--- a/Employee_Reports35/Neil Jhon Sabile Ramos Q0608.xlsx
+++ b/Employee_Reports35/Neil Jhon Sabile Ramos Q0608.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1246,11 +1246,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">

--- a/Employee_Reports35/Neil Jhon Sabile Ramos Q0608.xlsx
+++ b/Employee_Reports35/Neil Jhon Sabile Ramos Q0608.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1246,11 +1246,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,21 +1425,52 @@
       <c r="G5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr"/>
-      <c r="B6" s="3" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Cs Hoist</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>30-Oct-2025</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>40.74%</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>low percentage</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>This is a low mark, please retake the exam and improve your score. date is valid</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr"/>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>TOTAL AVERAGE</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>51.67%</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="n"/>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>48.94%</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
